--- a/sampleBullionList.xlsx
+++ b/sampleBullionList.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gangesh\Downloads\exal\allnewExcels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="615" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Bullion" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Bullion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -77,32 +81,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +100,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -122,89 +108,324 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="20.85546875"/>
+    <col min="2" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="12"/>
+    <col min="4" max="4" width="13.42578125"/>
+    <col min="5" max="5" width="12.42578125"/>
+    <col min="6" max="6" width="11.85546875"/>
+    <col min="7" max="7" width="15.5703125"/>
+    <col min="8" max="9" width="15.85546875"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="16.140625"/>
+    <col min="12" max="12" width="8.5703125"/>
+    <col min="13" max="13" width="18"/>
+    <col min="14" max="14" width="22.42578125"/>
+    <col min="15" max="18" width="8.5703125"/>
+    <col min="19" max="19" width="17.140625"/>
+    <col min="20" max="20" width="17.5703125"/>
+    <col min="21" max="21" width="14.28515625"/>
+    <col min="22" max="23" width="8.5703125"/>
+    <col min="24" max="24" width="13"/>
+    <col min="25" max="25" width="17.7109375"/>
+    <col min="26" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -226,14 +447,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -243,20 +464,20 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>12.32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -266,7 +487,7 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -279,41 +500,30 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A3" type="list">
-      <formula1>"Coin,Bar"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B3" type="list">
-      <formula1>"Gold,Silver,Platinum"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C3" type="list">
-      <formula1>"Gold Purity,Silver Purity,Platinum Purity"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D3" type="list">
-      <formula1>"12,14,15,18,20,22,24,995,999"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E3" type="list">
-      <formula1>"Gold Weight,Silver Weight,Platinum Weight"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F3" type="decimal">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G1:G3" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>"Coin,Bar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"Gold,Silver,Platinum"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"Gold Purity,Silver Purity,Platinum Purity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"12,14,15,18,20,22,24,995,999"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"Gold Weight,Silver Weight,Platinum Weight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"Ganesha,Ganesha Lakshmi,Shiva,Plain,Sai,Monuments,Leader,Flags,Other"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/sampleBullionList.xlsx
+++ b/sampleBullionList.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iftosi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="615" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Bullion" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Bullion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bullion!$A:$A</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -75,37 +82,22 @@
   </si>
   <si>
     <t>13qwe21wqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +109,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -125,89 +117,324 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="20.85546875"/>
+    <col min="2" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="12"/>
+    <col min="4" max="4" width="13.42578125"/>
+    <col min="5" max="5" width="12.42578125"/>
+    <col min="6" max="6" width="11.85546875"/>
+    <col min="7" max="7" width="15.5703125"/>
+    <col min="8" max="9" width="15.85546875"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="16.140625"/>
+    <col min="12" max="12" width="8.5703125"/>
+    <col min="13" max="13" width="18"/>
+    <col min="14" max="14" width="22.42578125"/>
+    <col min="15" max="18" width="8.5703125"/>
+    <col min="19" max="19" width="17.140625"/>
+    <col min="20" max="20" width="17.5703125"/>
+    <col min="21" max="21" width="14.28515625"/>
+    <col min="22" max="23" width="8.5703125"/>
+    <col min="24" max="24" width="13"/>
+    <col min="25" max="25" width="17.7109375"/>
+    <col min="26" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -229,14 +456,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -246,20 +473,20 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>12.32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -269,82 +496,103 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>10.36</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>999</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1048576" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1048576" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F4" type="decimal">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A4" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>"Coin,Bar"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B4" type="list">
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"Gold,Silver,Platinum"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C4" type="list">
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"Gold Purity,Silver Purity,Platinum Purity"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D4" type="list">
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"12,14,15,18,20,22,24,995,999"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E4" type="list">
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Gold Weight,Silver Weight,Platinum Weight"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G1:G4" type="list">
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"Ganesha,Ganesha Lakshmi,Shiva,Plain,Sai,Monuments,Leader,Flags,Other"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/sampleBullionList.xlsx
+++ b/sampleBullionList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Type</t>
   </si>
@@ -49,39 +49,6 @@
   </si>
   <si>
     <t>Design Number</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Silver Purity</t>
-  </si>
-  <si>
-    <t>Silver Weight</t>
-  </si>
-  <si>
-    <t>Ganesha Lakshmi</t>
-  </si>
-  <si>
-    <t>Coin</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Gold Purity</t>
-  </si>
-  <si>
-    <t>Platinum Weight</t>
-  </si>
-  <si>
-    <t>Plain</t>
-  </si>
-  <si>
-    <t>13qwe21wqe</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -406,32 +373,32 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875"/>
-    <col min="2" max="2" width="8.5703125"/>
+    <col min="1" max="1" width="20.875"/>
+    <col min="2" max="2" width="8.625"/>
     <col min="3" max="3" width="12"/>
-    <col min="4" max="4" width="13.42578125"/>
-    <col min="5" max="5" width="12.42578125"/>
-    <col min="6" max="6" width="11.85546875"/>
-    <col min="7" max="7" width="15.5703125"/>
-    <col min="8" max="9" width="15.85546875"/>
-    <col min="10" max="10" width="17.85546875"/>
-    <col min="11" max="11" width="16.140625"/>
-    <col min="12" max="12" width="8.5703125"/>
+    <col min="4" max="4" width="13.375"/>
+    <col min="5" max="5" width="12.375"/>
+    <col min="6" max="6" width="11.875"/>
+    <col min="7" max="7" width="15.625"/>
+    <col min="8" max="9" width="15.875"/>
+    <col min="10" max="10" width="17.875"/>
+    <col min="11" max="11" width="16.125"/>
+    <col min="12" max="12" width="8.625"/>
     <col min="13" max="13" width="18"/>
-    <col min="14" max="14" width="22.42578125"/>
-    <col min="15" max="18" width="8.5703125"/>
-    <col min="19" max="19" width="17.140625"/>
-    <col min="20" max="20" width="17.5703125"/>
-    <col min="21" max="21" width="14.28515625"/>
-    <col min="22" max="23" width="8.5703125"/>
+    <col min="14" max="14" width="22.375"/>
+    <col min="15" max="18" width="8.625"/>
+    <col min="19" max="19" width="17.125"/>
+    <col min="20" max="20" width="17.625"/>
+    <col min="21" max="21" width="14.25"/>
+    <col min="22" max="23" width="8.625"/>
     <col min="24" max="24" width="13"/>
-    <col min="25" max="25" width="17.7109375"/>
-    <col min="26" max="1025" width="8.5703125"/>
+    <col min="25" max="25" width="17.75"/>
+    <col min="26" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -464,107 +431,53 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>999</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12.32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>999</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10.36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="1048576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J1048576" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
